--- a/Meaghan Wright_.xlsx
+++ b/Meaghan Wright_.xlsx
@@ -16,13 +16,380 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tabby</t>
+  </si>
+  <si>
+    <t>Meaghan Wright</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 8:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 9:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 10:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:00 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:05 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:10 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:15 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:20 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:25 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:30 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:35 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:40 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:45 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:50 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 11:55 AM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:00 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:05 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:10 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:15 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:50 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:20 PM</t>
+  </si>
+  <si>
+    <t>03/20/18 Tue 1:55 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:25 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:30 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:35 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:40 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:45 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:50 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 12:55 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:00 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:05 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:10 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:15 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:20 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:25 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:30 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:35 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:40 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:45 PM</t>
+  </si>
+  <si>
+    <t>03/23/18 Fri 1:50 PM</t>
+  </si>
+  <si>
+    <t>Average Students</t>
+  </si>
+  <si>
+    <t>Average Tabby</t>
+  </si>
+  <si>
+    <t>Students/Tabby</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 10:05 AM -  Tue 12:10 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tue 1:15 PM -  Tue 3:00 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri 8:35 AM -  Fri 10:35 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri 11:00 AM -  Fri 12:50 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fri 1:10 PM -  Fri 2:35 PM</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,13 +397,45 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00efefef"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f2b8ea"/>
+        <bgColor rgb="00f2b8ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00dff7c0"/>
+        <bgColor rgb="00dff7c0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c0f7f4"/>
+        <bgColor rgb="00c0f7f4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffffff"/>
+        <bgColor rgb="00ffffff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -51,8 +450,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -401,14 +805,1283 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="20"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="5" min="5" width="20"/>
+    <col customWidth="1" max="6" min="6" width="20"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="n"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="n"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="n"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="n"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="n"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="n"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="n"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="n"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="n"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="n"/>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="n"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="n"/>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="n"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="n"/>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="n"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="n"/>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="n"/>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="1" t="n"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="n"/>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" s="1" t="n"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="n"/>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="1" t="n"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="n"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="n"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="n"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1" t="n"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="n"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="n"/>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="n"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" s="1" t="n"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1" t="n"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="1" t="n"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" s="1" t="n"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="n"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1" t="n"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="n"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1" t="n"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H38" s="1" t="n"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1" t="n"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1" t="n"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H41" s="1" t="n"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" s="1" t="n"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1" t="n"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="n"/>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="n"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="n"/>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="n"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="n"/>
+      <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1" t="n"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="n"/>
+      <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1" t="n"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="n"/>
+      <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" s="1" t="n"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="n"/>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="n"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="E50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1" t="n"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1" t="n"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="n"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="n"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="n"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1" t="n"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1" t="n"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1" t="n"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1" t="n"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="E59" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" s="1" t="n"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="E60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="n"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="E61" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="1" t="n"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="E62" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3</v>
+      </c>
+      <c r="G62" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1" t="n"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="E63" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" s="1" t="n"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="E64" t="s">
+        <v>111</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1" t="n"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1" t="n"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="E66" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -419,14 +2092,234 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4"/>
+    <row r="3" spans="1:4"/>
+    <row r="4" spans="1:4"/>
+    <row r="5" spans="1:4"/>
+    <row r="6" spans="1:4"/>
+    <row r="7" spans="1:4"/>
+    <row r="8" spans="1:4"/>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4"/>
+    <row r="13" spans="1:4"/>
+    <row r="14" spans="1:4"/>
+    <row r="15" spans="1:4"/>
+    <row r="16" spans="1:4"/>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4"/>
+    <row r="19" spans="1:4"/>
+    <row r="20" spans="1:4"/>
+    <row r="21" spans="1:4"/>
+    <row r="22" spans="1:4"/>
+    <row r="23" spans="1:4"/>
+    <row r="24" spans="1:4"/>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4"/>
+    <row r="27" spans="1:4"/>
+    <row r="28" spans="1:4"/>
+    <row r="29" spans="1:4"/>
+    <row r="30" spans="1:4"/>
+    <row r="31" spans="1:4"/>
+    <row r="32" spans="1:4"/>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C34" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4"/>
+    <row r="38" spans="1:4"/>
+    <row r="39" spans="1:4"/>
+    <row r="40" spans="1:4"/>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4"/>
+    <row r="43" spans="1:4"/>
+    <row r="44" spans="1:4"/>
+    <row r="45" spans="1:4"/>
+    <row r="46" spans="1:4"/>
+    <row r="47" spans="1:4"/>
+    <row r="48" spans="1:4"/>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4"/>
+    <row r="51" spans="1:4"/>
+    <row r="52" spans="1:4"/>
+    <row r="53" spans="1:4"/>
+    <row r="54" spans="1:4"/>
+    <row r="55" spans="1:4"/>
+    <row r="56" spans="1:4"/>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Meaghan Wright_.xlsx
+++ b/Meaghan Wright_.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>Date</t>
   </si>
@@ -369,7 +369,58 @@
     <t>Students/Tabby</t>
   </si>
   <si>
+    <t>Weekly Summary</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mon Day Summary</t>
+  </si>
+  <si>
+    <t>Mon Night Average</t>
+  </si>
+  <si>
+    <t>Tue Day Summary</t>
+  </si>
+  <si>
+    <t>Tue Night Average</t>
+  </si>
+  <si>
+    <t>Wed Day Summary</t>
+  </si>
+  <si>
+    <t>Wed Night Average</t>
+  </si>
+  <si>
+    <t>Thu Day Summary</t>
+  </si>
+  <si>
+    <t>Thu Night Average</t>
+  </si>
+  <si>
+    <t>Fri Day Summary</t>
+  </si>
+  <si>
+    <t>Fri Night Average</t>
+  </si>
+  <si>
+    <t>Sat Day Summary</t>
+  </si>
+  <si>
+    <t>Sat Night Average</t>
+  </si>
+  <si>
+    <t>Sun Day Summary</t>
+  </si>
+  <si>
+    <t>Sun Night Average</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Tue 10:05 AM -  Tue 12:10 PM</t>
+  </si>
+  <si>
+    <t>Weekly Average</t>
   </si>
   <si>
     <t xml:space="preserve"> Tue 1:15 PM -  Tue 3:00 PM</t>
@@ -401,7 +452,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -437,6 +488,16 @@
         <bgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00f7d28a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00c6c0ed"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -450,13 +511,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2092,7 +2155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2105,9 +2168,13 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="7" min="7" width="16"/>
+    <col customWidth="1" max="8" min="8" width="16"/>
+    <col customWidth="1" max="9" min="9" width="16"/>
+    <col customWidth="1" max="10" min="10" width="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2120,15 +2187,89 @@
       <c r="D1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:4"/>
-    <row r="3" spans="1:4"/>
-    <row r="4" spans="1:4"/>
-    <row r="5" spans="1:4"/>
-    <row r="6" spans="1:4"/>
-    <row r="7" spans="1:4"/>
-    <row r="8" spans="1:4"/>
-    <row r="9" spans="1:4">
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="G3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="6" t="n"/>
+      <c r="I3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="7" t="n"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="G4" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="7" t="n"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="G5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="6" t="n"/>
+      <c r="I5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="7" t="n"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="G6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="7" t="n"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="G7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="7" t="n"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="G8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="7" t="n"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2141,10 +2282,18 @@
       <c r="D9" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="G9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="6" t="n"/>
+      <c r="I9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -2155,10 +2304,16 @@
       <c r="D10" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B11" t="n">
         <v>4.18</v>
@@ -2170,12 +2325,12 @@
         <v>1.09</v>
       </c>
     </row>
-    <row r="12" spans="1:4"/>
-    <row r="13" spans="1:4"/>
-    <row r="14" spans="1:4"/>
-    <row r="15" spans="1:4"/>
-    <row r="16" spans="1:4"/>
-    <row r="17" spans="1:4">
+    <row r="12" spans="1:10"/>
+    <row r="13" spans="1:10"/>
+    <row r="14" spans="1:10"/>
+    <row r="15" spans="1:10"/>
+    <row r="16" spans="1:10"/>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2189,14 +2344,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:4"/>
-    <row r="19" spans="1:4"/>
-    <row r="20" spans="1:4"/>
-    <row r="21" spans="1:4"/>
-    <row r="22" spans="1:4"/>
-    <row r="23" spans="1:4"/>
-    <row r="24" spans="1:4"/>
-    <row r="25" spans="1:4">
+    <row r="18" spans="1:10"/>
+    <row r="19" spans="1:10"/>
+    <row r="20" spans="1:10"/>
+    <row r="21" spans="1:10"/>
+    <row r="22" spans="1:10"/>
+    <row r="23" spans="1:10"/>
+    <row r="24" spans="1:10"/>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -2210,14 +2365,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4"/>
-    <row r="27" spans="1:4"/>
-    <row r="28" spans="1:4"/>
-    <row r="29" spans="1:4"/>
-    <row r="30" spans="1:4"/>
-    <row r="31" spans="1:4"/>
-    <row r="32" spans="1:4"/>
-    <row r="33" spans="1:4">
+    <row r="26" spans="1:10"/>
+    <row r="27" spans="1:10"/>
+    <row r="28" spans="1:10"/>
+    <row r="29" spans="1:10"/>
+    <row r="30" spans="1:10"/>
+    <row r="31" spans="1:10"/>
+    <row r="32" spans="1:10"/>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2231,9 +2386,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B34" t="n">
         <v>2.88</v>
@@ -2245,9 +2400,9 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B35" t="n">
         <v>3.35</v>
@@ -2259,9 +2414,9 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B36" t="n">
         <v>3.5</v>
@@ -2273,11 +2428,11 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="37" spans="1:4"/>
-    <row r="38" spans="1:4"/>
-    <row r="39" spans="1:4"/>
-    <row r="40" spans="1:4"/>
-    <row r="41" spans="1:4">
+    <row r="37" spans="1:10"/>
+    <row r="38" spans="1:10"/>
+    <row r="39" spans="1:10"/>
+    <row r="40" spans="1:10"/>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -2291,14 +2446,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4"/>
-    <row r="43" spans="1:4"/>
-    <row r="44" spans="1:4"/>
-    <row r="45" spans="1:4"/>
-    <row r="46" spans="1:4"/>
-    <row r="47" spans="1:4"/>
-    <row r="48" spans="1:4"/>
-    <row r="49" spans="1:4">
+    <row r="42" spans="1:10"/>
+    <row r="43" spans="1:10"/>
+    <row r="44" spans="1:10"/>
+    <row r="45" spans="1:10"/>
+    <row r="46" spans="1:10"/>
+    <row r="47" spans="1:10"/>
+    <row r="48" spans="1:10"/>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2312,13 +2467,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:4"/>
-    <row r="51" spans="1:4"/>
-    <row r="52" spans="1:4"/>
-    <row r="53" spans="1:4"/>
-    <row r="54" spans="1:4"/>
-    <row r="55" spans="1:4"/>
-    <row r="56" spans="1:4"/>
+    <row r="50" spans="1:10"/>
+    <row r="51" spans="1:10"/>
+    <row r="52" spans="1:10"/>
+    <row r="53" spans="1:10"/>
+    <row r="54" spans="1:10"/>
+    <row r="55" spans="1:10"/>
+    <row r="56" spans="1:10"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Meaghan Wright_.xlsx
+++ b/Meaghan Wright_.xlsx
@@ -440,7 +440,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -450,6 +450,14 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
     </font>
   </fonts>
   <fills count="9">
@@ -511,15 +519,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -2168,10 +2178,10 @@
     <col customWidth="1" max="3" min="3" width="15"/>
     <col customWidth="1" max="4" min="4" width="15"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="7" min="7" width="16"/>
-    <col customWidth="1" max="8" min="8" width="16"/>
-    <col customWidth="1" max="9" min="9" width="16"/>
-    <col customWidth="1" max="10" min="10" width="16"/>
+    <col customWidth="1" max="7" min="7" width="20"/>
+    <col customWidth="1" max="8" min="8" width="20"/>
+    <col customWidth="1" max="9" min="9" width="20"/>
+    <col customWidth="1" max="10" min="10" width="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2187,7 +2197,7 @@
       <c r="D1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="6" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2206,68 +2216,68 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="7" t="n"/>
+      <c r="I3" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="7" t="n"/>
+      <c r="J3" s="8" t="n"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="7" t="n"/>
+      <c r="J4" s="8" t="n"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="7" t="n"/>
+      <c r="I5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="7" t="n"/>
+      <c r="J5" s="8" t="n"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="6" t="n"/>
-      <c r="I6" s="7" t="s">
+      <c r="H6" s="7" t="n"/>
+      <c r="I6" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="7" t="n"/>
+      <c r="J6" s="8" t="n"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>0.93</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="7" t="n"/>
+      <c r="J7" s="8" t="n"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="6" t="n"/>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="7" t="n"/>
+      <c r="I8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="7" t="n"/>
+      <c r="J8" s="8" t="n"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
@@ -2282,14 +2292,14 @@
       <c r="D9" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="6" t="n"/>
-      <c r="I9" s="7" t="s">
+      <c r="H9" s="7" t="n"/>
+      <c r="I9" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="7" t="n"/>
+      <c r="J9" s="8" t="n"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
@@ -2304,12 +2314,14 @@
       <c r="D10" t="n">
         <v>0.77</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="9" t="n">
         <v>0.93</v>
       </c>
+      <c r="I10" s="9" t="n"/>
+      <c r="J10" s="9" t="n"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
